--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx, "A 30703-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -787,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -844,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -906,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1134,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1191,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1248,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1305,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1362,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1419,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1481,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1595,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1652,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1776,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1838,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1900,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1962,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2019,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2138,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx, "A 30703-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/kartor/A 30703-2023.png", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/artfynd/A 30703-2023 artfynd.xlsx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/kartor/A 30703-2023.png", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/kartor/A 30703-2023 karta.png", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023 fsc-klagomål.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023 fsc-klagomål mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsyn/A 30703-2023 tillsynsbegäran.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/ti,llsynsmail/A 30703-2023 tillsynsbegäran mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023 fsc-klagomål.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023 FSC-klagomål.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023 fsc-klagomål mail.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023 FSC-klagomål mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/ti,llsynsmail/A 30703-2023 tillsynsbegäran mail.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsynsmail/A 30703-2023 tillsynsbegäran mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Logging_SKELLEFTEA/Översikt SKELLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45116</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45122</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45122</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45123</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>45135</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
